--- a/documents/Documentation.xlsx
+++ b/documents/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/CO600 Group Project/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6280ED-87B5-6F4C-BC96-6962C4B30F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D4212-94D0-CD4D-929A-2A97AF1C27EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2065,6 +2065,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2086,41 +2095,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2138,7 +2112,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2155,6 +2135,35 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2194,15 +2203,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6030,15 +6030,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="220"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
@@ -6104,15 +6104,15 @@
       <c r="AA2" s="24"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="223"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -6135,13 +6135,13 @@
       <c r="AA3" s="27"/>
     </row>
     <row r="4" spans="1:27" ht="13">
-      <c r="A4" s="224"/>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="226"/>
+      <c r="A4" s="227"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="229"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -6164,7 +6164,7 @@
       <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" ht="14">
-      <c r="A5" s="227"/>
+      <c r="A5" s="230"/>
       <c r="B5" s="33"/>
       <c r="C5" s="37"/>
       <c r="D5" s="40"/>
@@ -6193,7 +6193,7 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" ht="14">
-      <c r="A6" s="216"/>
+      <c r="A6" s="219"/>
       <c r="B6" s="46"/>
       <c r="C6" s="47"/>
       <c r="D6" s="48"/>
@@ -6222,7 +6222,7 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="14">
-      <c r="A7" s="216"/>
+      <c r="A7" s="219"/>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
       <c r="D7" s="48"/>
@@ -6251,7 +6251,7 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="14">
-      <c r="A8" s="216"/>
+      <c r="A8" s="219"/>
       <c r="B8" s="46"/>
       <c r="C8" s="47"/>
       <c r="D8" s="56"/>
@@ -6280,7 +6280,7 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="14">
-      <c r="A9" s="216"/>
+      <c r="A9" s="219"/>
       <c r="B9" s="46"/>
       <c r="C9" s="47"/>
       <c r="D9" s="48"/>
@@ -6309,7 +6309,7 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="14">
-      <c r="A10" s="216"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="48"/>
@@ -6338,7 +6338,7 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="216"/>
+      <c r="A11" s="219"/>
       <c r="B11" s="46"/>
       <c r="C11" s="47"/>
       <c r="D11" s="48"/>
@@ -6367,7 +6367,7 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A12" s="216"/>
+      <c r="A12" s="219"/>
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
       <c r="D12" s="48"/>
@@ -6396,7 +6396,7 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A13" s="216"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
@@ -6425,7 +6425,7 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A14" s="216"/>
+      <c r="A14" s="219"/>
       <c r="B14" s="46"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
@@ -6454,7 +6454,7 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A15" s="216"/>
+      <c r="A15" s="219"/>
       <c r="B15" s="46"/>
       <c r="C15" s="47"/>
       <c r="D15" s="48"/>
@@ -6483,7 +6483,7 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A16" s="216"/>
+      <c r="A16" s="219"/>
       <c r="B16" s="46"/>
       <c r="C16" s="47"/>
       <c r="D16" s="48"/>
@@ -6512,7 +6512,7 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A17" s="217"/>
+      <c r="A17" s="220"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="48"/>
@@ -6572,7 +6572,7 @@
       <c r="AA18" s="82"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A19" s="215"/>
+      <c r="A19" s="218"/>
       <c r="B19" s="46"/>
       <c r="C19" s="47"/>
       <c r="D19" s="48"/>
@@ -6601,7 +6601,7 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A20" s="216"/>
+      <c r="A20" s="219"/>
       <c r="B20" s="46"/>
       <c r="C20" s="47"/>
       <c r="D20" s="48"/>
@@ -6630,7 +6630,7 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A21" s="216"/>
+      <c r="A21" s="219"/>
       <c r="B21" s="46"/>
       <c r="C21" s="47"/>
       <c r="D21" s="48"/>
@@ -6659,7 +6659,7 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A22" s="217"/>
+      <c r="A22" s="220"/>
       <c r="B22" s="46"/>
       <c r="C22" s="47"/>
       <c r="D22" s="48"/>
@@ -6719,7 +6719,7 @@
       <c r="AA23" s="88"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A24" s="215"/>
+      <c r="A24" s="218"/>
       <c r="B24" s="46"/>
       <c r="C24" s="47"/>
       <c r="D24" s="48"/>
@@ -6748,7 +6748,7 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A25" s="216"/>
+      <c r="A25" s="219"/>
       <c r="B25" s="46"/>
       <c r="C25" s="47"/>
       <c r="D25" s="48"/>
@@ -6777,7 +6777,7 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A26" s="216"/>
+      <c r="A26" s="219"/>
       <c r="B26" s="46"/>
       <c r="C26" s="92"/>
       <c r="D26" s="48"/>
@@ -6806,7 +6806,7 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A27" s="216"/>
+      <c r="A27" s="219"/>
       <c r="B27" s="46"/>
       <c r="C27" s="47"/>
       <c r="D27" s="48"/>
@@ -6835,7 +6835,7 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A28" s="216"/>
+      <c r="A28" s="219"/>
       <c r="B28" s="46"/>
       <c r="C28" s="47"/>
       <c r="D28" s="48"/>
@@ -6864,7 +6864,7 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A29" s="216"/>
+      <c r="A29" s="219"/>
       <c r="B29" s="46"/>
       <c r="C29" s="94"/>
       <c r="D29" s="48"/>
@@ -6893,7 +6893,7 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A30" s="216"/>
+      <c r="A30" s="219"/>
       <c r="B30" s="46"/>
       <c r="C30" s="47"/>
       <c r="D30" s="48"/>
@@ -6922,7 +6922,7 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A31" s="216"/>
+      <c r="A31" s="219"/>
       <c r="B31" s="46"/>
       <c r="C31" s="47"/>
       <c r="D31" s="48"/>
@@ -6951,7 +6951,7 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A32" s="216"/>
+      <c r="A32" s="219"/>
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
       <c r="D32" s="48"/>
@@ -6980,7 +6980,7 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A33" s="217"/>
+      <c r="A33" s="220"/>
       <c r="B33" s="46"/>
       <c r="C33" s="47"/>
       <c r="D33" s="48"/>
@@ -7040,7 +7040,7 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A35" s="215"/>
+      <c r="A35" s="218"/>
       <c r="B35" s="46"/>
       <c r="C35" s="47"/>
       <c r="D35" s="48"/>
@@ -7069,7 +7069,7 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A36" s="216"/>
+      <c r="A36" s="219"/>
       <c r="B36" s="102"/>
       <c r="C36" s="103"/>
       <c r="D36" s="104"/>
@@ -7098,7 +7098,7 @@
       <c r="AA36" s="107"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A37" s="216"/>
+      <c r="A37" s="219"/>
       <c r="B37" s="46"/>
       <c r="C37" s="47"/>
       <c r="D37" s="48"/>
@@ -7127,7 +7127,7 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A38" s="217"/>
+      <c r="A38" s="220"/>
       <c r="B38" s="46"/>
       <c r="C38" s="47"/>
       <c r="D38" s="48"/>
@@ -7187,7 +7187,7 @@
       <c r="AA39" s="112"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A40" s="215"/>
+      <c r="A40" s="218"/>
       <c r="B40" s="46"/>
       <c r="C40" s="47"/>
       <c r="D40" s="48"/>
@@ -7216,7 +7216,7 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A41" s="216"/>
+      <c r="A41" s="219"/>
       <c r="B41" s="46"/>
       <c r="C41" s="47"/>
       <c r="D41" s="48"/>
@@ -7245,7 +7245,7 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A42" s="216"/>
+      <c r="A42" s="219"/>
       <c r="B42" s="46"/>
       <c r="C42" s="47"/>
       <c r="D42" s="48"/>
@@ -7274,7 +7274,7 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A43" s="216"/>
+      <c r="A43" s="219"/>
       <c r="B43" s="46"/>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
@@ -7303,7 +7303,7 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A44" s="216"/>
+      <c r="A44" s="219"/>
       <c r="B44" s="46"/>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
@@ -7332,7 +7332,7 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A45" s="216"/>
+      <c r="A45" s="219"/>
       <c r="B45" s="46"/>
       <c r="C45" s="47"/>
       <c r="D45" s="48"/>
@@ -7361,7 +7361,7 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A46" s="217"/>
+      <c r="A46" s="220"/>
       <c r="B46" s="113"/>
       <c r="C46" s="114"/>
       <c r="D46" s="115"/>
@@ -13991,29 +13991,29 @@
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
-      <c r="D1" s="254" t="s">
+      <c r="D1" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
     </row>
     <row r="2" spans="1:29" ht="24" thickBot="1">
       <c r="A2" s="153" t="s">
@@ -14726,7 +14726,7 @@
       <c r="Y17" s="177"/>
       <c r="Z17" s="177"/>
       <c r="AA17" s="177"/>
-      <c r="AC17" s="255"/>
+      <c r="AC17" s="258"/>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="166"/>
@@ -14756,7 +14756,7 @@
       <c r="Y18" s="177"/>
       <c r="Z18" s="177"/>
       <c r="AA18" s="177"/>
-      <c r="AC18" s="255"/>
+      <c r="AC18" s="258"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="166"/>
@@ -15345,107 +15345,107 @@
       <c r="A36" s="148"/>
       <c r="B36" s="148"/>
       <c r="C36" s="148"/>
-      <c r="D36" s="256" t="s">
+      <c r="D36" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="257"/>
-      <c r="F36" s="257"/>
-      <c r="G36" s="257"/>
-      <c r="H36" s="257"/>
-      <c r="I36" s="257"/>
-      <c r="J36" s="257"/>
-      <c r="K36" s="257"/>
-      <c r="L36" s="257"/>
-      <c r="M36" s="257"/>
-      <c r="N36" s="257"/>
-      <c r="O36" s="257"/>
-      <c r="P36" s="257"/>
-      <c r="Q36" s="257"/>
-      <c r="R36" s="257"/>
-      <c r="S36" s="257"/>
-      <c r="T36" s="257"/>
-      <c r="U36" s="257"/>
-      <c r="V36" s="257"/>
-      <c r="W36" s="257"/>
-      <c r="X36" s="258"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
+      <c r="H36" s="260"/>
+      <c r="I36" s="260"/>
+      <c r="J36" s="260"/>
+      <c r="K36" s="260"/>
+      <c r="L36" s="260"/>
+      <c r="M36" s="260"/>
+      <c r="N36" s="260"/>
+      <c r="O36" s="260"/>
+      <c r="P36" s="260"/>
+      <c r="Q36" s="260"/>
+      <c r="R36" s="260"/>
+      <c r="S36" s="260"/>
+      <c r="T36" s="260"/>
+      <c r="U36" s="260"/>
+      <c r="V36" s="260"/>
+      <c r="W36" s="260"/>
+      <c r="X36" s="261"/>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="148"/>
       <c r="B37" s="148"/>
       <c r="C37" s="148"/>
-      <c r="D37" s="259"/>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="260"/>
-      <c r="H37" s="260"/>
-      <c r="I37" s="260"/>
-      <c r="J37" s="260"/>
-      <c r="K37" s="260"/>
-      <c r="L37" s="260"/>
-      <c r="M37" s="260"/>
-      <c r="N37" s="260"/>
-      <c r="O37" s="260"/>
-      <c r="P37" s="260"/>
-      <c r="Q37" s="260"/>
-      <c r="R37" s="260"/>
-      <c r="S37" s="260"/>
-      <c r="T37" s="260"/>
-      <c r="U37" s="260"/>
-      <c r="V37" s="260"/>
-      <c r="W37" s="260"/>
-      <c r="X37" s="261"/>
+      <c r="D37" s="262"/>
+      <c r="E37" s="263"/>
+      <c r="F37" s="263"/>
+      <c r="G37" s="263"/>
+      <c r="H37" s="263"/>
+      <c r="I37" s="263"/>
+      <c r="J37" s="263"/>
+      <c r="K37" s="263"/>
+      <c r="L37" s="263"/>
+      <c r="M37" s="263"/>
+      <c r="N37" s="263"/>
+      <c r="O37" s="263"/>
+      <c r="P37" s="263"/>
+      <c r="Q37" s="263"/>
+      <c r="R37" s="263"/>
+      <c r="S37" s="263"/>
+      <c r="T37" s="263"/>
+      <c r="U37" s="263"/>
+      <c r="V37" s="263"/>
+      <c r="W37" s="263"/>
+      <c r="X37" s="264"/>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="148"/>
       <c r="B38" s="148"/>
       <c r="C38" s="148"/>
-      <c r="D38" s="259"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="260"/>
-      <c r="H38" s="260"/>
-      <c r="I38" s="260"/>
-      <c r="J38" s="260"/>
-      <c r="K38" s="260"/>
-      <c r="L38" s="260"/>
-      <c r="M38" s="260"/>
-      <c r="N38" s="260"/>
-      <c r="O38" s="260"/>
-      <c r="P38" s="260"/>
-      <c r="Q38" s="260"/>
-      <c r="R38" s="260"/>
-      <c r="S38" s="260"/>
-      <c r="T38" s="260"/>
-      <c r="U38" s="260"/>
-      <c r="V38" s="260"/>
-      <c r="W38" s="260"/>
-      <c r="X38" s="261"/>
+      <c r="D38" s="262"/>
+      <c r="E38" s="263"/>
+      <c r="F38" s="263"/>
+      <c r="G38" s="263"/>
+      <c r="H38" s="263"/>
+      <c r="I38" s="263"/>
+      <c r="J38" s="263"/>
+      <c r="K38" s="263"/>
+      <c r="L38" s="263"/>
+      <c r="M38" s="263"/>
+      <c r="N38" s="263"/>
+      <c r="O38" s="263"/>
+      <c r="P38" s="263"/>
+      <c r="Q38" s="263"/>
+      <c r="R38" s="263"/>
+      <c r="S38" s="263"/>
+      <c r="T38" s="263"/>
+      <c r="U38" s="263"/>
+      <c r="V38" s="263"/>
+      <c r="W38" s="263"/>
+      <c r="X38" s="264"/>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="148"/>
       <c r="B39" s="148"/>
       <c r="C39" s="148"/>
-      <c r="D39" s="262"/>
-      <c r="E39" s="263"/>
-      <c r="F39" s="263"/>
-      <c r="G39" s="263"/>
-      <c r="H39" s="263"/>
-      <c r="I39" s="263"/>
-      <c r="J39" s="263"/>
-      <c r="K39" s="263"/>
-      <c r="L39" s="263"/>
-      <c r="M39" s="263"/>
-      <c r="N39" s="263"/>
-      <c r="O39" s="263"/>
-      <c r="P39" s="263"/>
-      <c r="Q39" s="263"/>
-      <c r="R39" s="263"/>
-      <c r="S39" s="263"/>
-      <c r="T39" s="263"/>
-      <c r="U39" s="263"/>
-      <c r="V39" s="263"/>
-      <c r="W39" s="263"/>
-      <c r="X39" s="264"/>
+      <c r="D39" s="265"/>
+      <c r="E39" s="266"/>
+      <c r="F39" s="266"/>
+      <c r="G39" s="266"/>
+      <c r="H39" s="266"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="266"/>
+      <c r="K39" s="266"/>
+      <c r="L39" s="266"/>
+      <c r="M39" s="266"/>
+      <c r="N39" s="266"/>
+      <c r="O39" s="266"/>
+      <c r="P39" s="266"/>
+      <c r="Q39" s="266"/>
+      <c r="R39" s="266"/>
+      <c r="S39" s="266"/>
+      <c r="T39" s="266"/>
+      <c r="U39" s="266"/>
+      <c r="V39" s="266"/>
+      <c r="W39" s="266"/>
+      <c r="X39" s="267"/>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="148"/>
@@ -15945,256 +15945,256 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="265"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="258"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="261"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="259"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="261"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="264"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="264"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="259"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="264"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="261"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="264"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="261"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="264"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="261"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="264"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="261"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="264"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="261"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="264"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="261"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="263"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="264"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="260"/>
-      <c r="H16" s="261"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="263"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="264"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="261"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="264"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="261"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="264"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="261"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="263"/>
+      <c r="G19" s="263"/>
+      <c r="H19" s="264"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="261"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="264"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="261"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="263"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="264"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="261"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="264"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="259"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="260"/>
-      <c r="H23" s="261"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="264"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="261"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="264"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="259"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="260"/>
-      <c r="H25" s="261"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="263"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="264"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="259"/>
-      <c r="C26" s="260"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="261"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="264"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="264"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="259"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="260"/>
-      <c r="H28" s="261"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="263"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="263"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="264"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="259"/>
-      <c r="C29" s="260"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="260"/>
-      <c r="H29" s="261"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="263"/>
+      <c r="E29" s="263"/>
+      <c r="F29" s="263"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="264"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="259"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="260"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="261"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="264"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="259"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="261"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="263"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="263"/>
+      <c r="G31" s="263"/>
+      <c r="H31" s="264"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="262"/>
-      <c r="C32" s="263"/>
-      <c r="D32" s="263"/>
-      <c r="E32" s="263"/>
-      <c r="F32" s="263"/>
-      <c r="G32" s="263"/>
-      <c r="H32" s="264"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="266"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="266"/>
+      <c r="H32" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16220,256 +16220,256 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="265"/>
-      <c r="C6" s="257"/>
-      <c r="D6" s="257"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="258"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="264"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="259"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="264"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="261"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="264"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="261"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="264"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="261"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="264"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="261"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="264"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="261"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="264"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="261"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="263"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="264"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="260"/>
-      <c r="H16" s="261"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="263"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="264"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="261"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="264"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="261"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="264"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="261"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="263"/>
+      <c r="G19" s="263"/>
+      <c r="H19" s="264"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="261"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="264"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="261"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="263"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="264"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="261"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="264"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="259"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="260"/>
-      <c r="H23" s="261"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="264"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="261"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="264"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="259"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="260"/>
-      <c r="H25" s="261"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="263"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="264"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="259"/>
-      <c r="C26" s="260"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="261"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="264"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="264"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="259"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="260"/>
-      <c r="H28" s="261"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="263"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="263"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="264"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="259"/>
-      <c r="C29" s="260"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="260"/>
-      <c r="H29" s="261"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="263"/>
+      <c r="E29" s="263"/>
+      <c r="F29" s="263"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="264"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="259"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="260"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="261"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="264"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="259"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="261"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="263"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="263"/>
+      <c r="G31" s="263"/>
+      <c r="H31" s="264"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="259"/>
-      <c r="C32" s="260"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="260"/>
-      <c r="F32" s="260"/>
-      <c r="G32" s="260"/>
-      <c r="H32" s="261"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="263"/>
+      <c r="E32" s="263"/>
+      <c r="F32" s="263"/>
+      <c r="G32" s="263"/>
+      <c r="H32" s="264"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="262"/>
-      <c r="C33" s="263"/>
-      <c r="D33" s="263"/>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="263"/>
-      <c r="H33" s="264"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="266"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="266"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="266"/>
+      <c r="H33" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16496,10 +16496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="220"/>
+      <c r="B1" s="223"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -17580,10 +17580,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="220"/>
+      <c r="B1" s="223"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
@@ -19727,7 +19727,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -19779,7 +19779,7 @@
       <c r="A6" s="124">
         <v>5</v>
       </c>
-      <c r="B6" s="267" t="s">
+      <c r="B6" s="215" t="s">
         <v>101</v>
       </c>
     </row>
@@ -19787,7 +19787,7 @@
       <c r="A7" s="125">
         <v>6</v>
       </c>
-      <c r="B7" s="267" t="s">
+      <c r="B7" s="215" t="s">
         <v>107</v>
       </c>
     </row>
@@ -19795,7 +19795,7 @@
       <c r="A8" s="124">
         <v>7</v>
       </c>
-      <c r="B8" s="269" t="s">
+      <c r="B8" s="217" t="s">
         <v>103</v>
       </c>
     </row>
@@ -19803,7 +19803,7 @@
       <c r="A9" s="125">
         <v>8</v>
       </c>
-      <c r="B9" s="268" t="s">
+      <c r="B9" s="216" t="s">
         <v>104</v>
       </c>
     </row>
@@ -19904,9 +19904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -19926,11 +19926,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A1" s="241"/>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="243"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="233"/>
     </row>
     <row r="2" spans="1:28" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="9" t="s">
@@ -19979,7 +19979,7 @@
       <c r="D3" s="163">
         <v>10</v>
       </c>
-      <c r="E3" s="234">
+      <c r="E3" s="238">
         <f>SUM(D3:D35)</f>
         <v>131</v>
       </c>
@@ -19997,11 +19997,11 @@
       <c r="D4" s="164">
         <v>5</v>
       </c>
-      <c r="E4" s="216"/>
-      <c r="G4" s="228" t="s">
+      <c r="E4" s="219"/>
+      <c r="G4" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="220"/>
+      <c r="H4" s="223"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
@@ -20020,7 +20020,7 @@
       <c r="D5" s="161">
         <v>20</v>
       </c>
-      <c r="E5" s="216"/>
+      <c r="E5" s="219"/>
       <c r="G5" s="39" t="s">
         <v>18</v>
       </c>
@@ -20041,7 +20041,7 @@
       <c r="D6" s="161">
         <v>20</v>
       </c>
-      <c r="E6" s="216"/>
+      <c r="E6" s="219"/>
       <c r="G6" s="51" t="s">
         <v>20</v>
       </c>
@@ -20056,13 +20056,13 @@
       <c r="B7" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="267" t="s">
+      <c r="C7" s="215" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="161">
         <v>20</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="219"/>
       <c r="G7" s="51" t="s">
         <v>21</v>
       </c>
@@ -20077,13 +20077,13 @@
       <c r="B8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="267" t="s">
+      <c r="C8" s="215" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="161">
         <v>10</v>
       </c>
-      <c r="E8" s="216"/>
+      <c r="E8" s="219"/>
       <c r="G8" s="51" t="s">
         <v>22</v>
       </c>
@@ -20098,13 +20098,13 @@
       <c r="B9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="217" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="161">
         <v>30</v>
       </c>
-      <c r="E9" s="216"/>
+      <c r="E9" s="219"/>
       <c r="G9" s="58" t="s">
         <v>23</v>
       </c>
@@ -20119,13 +20119,13 @@
       <c r="B10" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="216" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="161">
         <v>3</v>
       </c>
-      <c r="E10" s="216"/>
+      <c r="E10" s="219"/>
       <c r="G10" s="159"/>
       <c r="H10" s="160"/>
     </row>
@@ -20142,7 +20142,7 @@
       <c r="D11" s="161">
         <v>10</v>
       </c>
-      <c r="E11" s="216"/>
+      <c r="E11" s="219"/>
       <c r="G11" s="159"/>
       <c r="H11" s="160"/>
     </row>
@@ -20159,7 +20159,7 @@
       <c r="D12" s="161">
         <v>3</v>
       </c>
-      <c r="E12" s="216"/>
+      <c r="E12" s="219"/>
       <c r="G12" s="159"/>
       <c r="H12" s="160"/>
       <c r="I12" t="s">
@@ -20171,27 +20171,27 @@
       <c r="B13" s="32"/>
       <c r="C13" s="166"/>
       <c r="D13" s="161"/>
-      <c r="E13" s="216"/>
-      <c r="G13" s="228" t="s">
+      <c r="E13" s="219"/>
+      <c r="G13" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="220"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="222"/>
+      <c r="L13" s="223"/>
     </row>
     <row r="14" spans="1:28" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="29"/>
       <c r="B14" s="32"/>
       <c r="C14" s="166"/>
       <c r="D14" s="161"/>
-      <c r="E14" s="216"/>
-      <c r="G14" s="229" t="s">
+      <c r="E14" s="219"/>
+      <c r="G14" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="219"/>
-      <c r="I14" s="230"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="250"/>
       <c r="J14" s="61"/>
       <c r="K14" s="62" t="s">
         <v>27</v>
@@ -20205,7 +20205,7 @@
       <c r="B15" s="32"/>
       <c r="C15" s="166"/>
       <c r="D15" s="161"/>
-      <c r="E15" s="216"/>
+      <c r="E15" s="219"/>
       <c r="G15" s="140" t="s">
         <v>30</v>
       </c>
@@ -20224,7 +20224,7 @@
       <c r="B16" s="32"/>
       <c r="C16" s="166"/>
       <c r="D16" s="161"/>
-      <c r="E16" s="216"/>
+      <c r="E16" s="219"/>
       <c r="G16" s="25">
         <v>1</v>
       </c>
@@ -20247,7 +20247,7 @@
       <c r="B17" s="32"/>
       <c r="C17" s="166"/>
       <c r="D17" s="161"/>
-      <c r="E17" s="216"/>
+      <c r="E17" s="219"/>
       <c r="G17" s="29">
         <v>2</v>
       </c>
@@ -20266,11 +20266,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A18" s="238"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="216"/>
+      <c r="A18" s="246"/>
+      <c r="B18" s="244"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="219"/>
       <c r="G18" s="29">
         <v>3</v>
       </c>
@@ -20289,11 +20289,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A19" s="239"/>
-      <c r="B19" s="253"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="216"/>
+      <c r="A19" s="247"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="219"/>
       <c r="G19" s="29">
         <v>4</v>
       </c>
@@ -20316,7 +20316,7 @@
       <c r="B20" s="32"/>
       <c r="C20" s="166"/>
       <c r="D20" s="161"/>
-      <c r="E20" s="216"/>
+      <c r="E20" s="219"/>
       <c r="G20" s="29">
         <v>5</v>
       </c>
@@ -20339,7 +20339,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="166"/>
       <c r="D21" s="161"/>
-      <c r="E21" s="216"/>
+      <c r="E21" s="219"/>
       <c r="G21" s="29">
         <v>6</v>
       </c>
@@ -20362,7 +20362,7 @@
       <c r="B22" s="32"/>
       <c r="C22" s="166"/>
       <c r="D22" s="161"/>
-      <c r="E22" s="216"/>
+      <c r="E22" s="219"/>
       <c r="G22" s="29">
         <v>7</v>
       </c>
@@ -20385,7 +20385,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="166"/>
       <c r="D23" s="161"/>
-      <c r="E23" s="216"/>
+      <c r="E23" s="219"/>
       <c r="G23" s="29">
         <v>8</v>
       </c>
@@ -20408,7 +20408,7 @@
       <c r="B24" s="32"/>
       <c r="C24" s="166"/>
       <c r="D24" s="161"/>
-      <c r="E24" s="216"/>
+      <c r="E24" s="219"/>
       <c r="G24" s="29">
         <v>9</v>
       </c>
@@ -20431,7 +20431,7 @@
       <c r="B25" s="32"/>
       <c r="C25" s="166"/>
       <c r="D25" s="161"/>
-      <c r="E25" s="216"/>
+      <c r="E25" s="219"/>
       <c r="G25" s="29">
         <v>10</v>
       </c>
@@ -20454,7 +20454,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="166"/>
       <c r="D26" s="161"/>
-      <c r="E26" s="216"/>
+      <c r="E26" s="219"/>
       <c r="G26" s="29"/>
       <c r="H26" s="141"/>
       <c r="I26" s="183"/>
@@ -20467,7 +20467,7 @@
       <c r="B27" s="32"/>
       <c r="C27" s="166"/>
       <c r="D27" s="161"/>
-      <c r="E27" s="216"/>
+      <c r="E27" s="219"/>
       <c r="G27" s="29"/>
       <c r="H27" s="141"/>
       <c r="I27" s="182"/>
@@ -20480,7 +20480,7 @@
       <c r="B28" s="32"/>
       <c r="C28" s="166"/>
       <c r="D28" s="161"/>
-      <c r="E28" s="216"/>
+      <c r="E28" s="219"/>
       <c r="G28" s="29"/>
       <c r="H28" s="141"/>
       <c r="I28" s="183"/>
@@ -20493,7 +20493,7 @@
       <c r="B29" s="32"/>
       <c r="C29" s="166"/>
       <c r="D29" s="161"/>
-      <c r="E29" s="216"/>
+      <c r="E29" s="219"/>
       <c r="G29" s="29"/>
       <c r="H29" s="141"/>
       <c r="I29" s="182"/>
@@ -20506,7 +20506,7 @@
       <c r="B30" s="32"/>
       <c r="C30" s="166"/>
       <c r="D30" s="161"/>
-      <c r="E30" s="216"/>
+      <c r="E30" s="219"/>
       <c r="G30" s="29"/>
       <c r="H30" s="141"/>
       <c r="I30" s="183"/>
@@ -20519,8 +20519,8 @@
       <c r="B31" s="32"/>
       <c r="C31" s="166"/>
       <c r="D31" s="161"/>
-      <c r="E31" s="216"/>
-      <c r="G31" s="238"/>
+      <c r="E31" s="219"/>
+      <c r="G31" s="246"/>
       <c r="H31" s="141"/>
       <c r="I31" s="182"/>
       <c r="J31" s="95"/>
@@ -20532,8 +20532,8 @@
       <c r="B32" s="32"/>
       <c r="C32" s="166"/>
       <c r="D32" s="161"/>
-      <c r="E32" s="216"/>
-      <c r="G32" s="239"/>
+      <c r="E32" s="219"/>
+      <c r="G32" s="247"/>
       <c r="H32" s="141"/>
       <c r="I32" s="183"/>
       <c r="J32" s="95"/>
@@ -20545,7 +20545,7 @@
       <c r="B33" s="32"/>
       <c r="C33" s="166"/>
       <c r="D33" s="161"/>
-      <c r="E33" s="216"/>
+      <c r="E33" s="219"/>
       <c r="G33" s="29"/>
       <c r="H33" s="141"/>
       <c r="I33" s="182"/>
@@ -20558,7 +20558,7 @@
       <c r="B34" s="32"/>
       <c r="C34" s="166"/>
       <c r="D34" s="161"/>
-      <c r="E34" s="216"/>
+      <c r="E34" s="219"/>
       <c r="G34" s="29"/>
       <c r="H34" s="141"/>
       <c r="I34" s="183"/>
@@ -20571,7 +20571,7 @@
       <c r="B35" s="32"/>
       <c r="C35" s="166"/>
       <c r="D35" s="165"/>
-      <c r="E35" s="217"/>
+      <c r="E35" s="220"/>
       <c r="G35" s="29"/>
       <c r="H35" s="141"/>
       <c r="I35" s="182"/>
@@ -20580,13 +20580,13 @@
       <c r="L35" s="142"/>
     </row>
     <row r="36" spans="1:12" thickTop="1" thickBot="1">
-      <c r="A36" s="246" t="s">
+      <c r="A36" s="236" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="219"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="219"/>
-      <c r="E36" s="220"/>
+      <c r="B36" s="222"/>
+      <c r="C36" s="228"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="223"/>
       <c r="G36" s="29"/>
       <c r="H36" s="141"/>
       <c r="I36" s="183"/>
@@ -20595,13 +20595,13 @@
       <c r="L36" s="142"/>
     </row>
     <row r="37" spans="1:12" thickTop="1" thickBot="1">
-      <c r="A37" s="247" t="s">
+      <c r="A37" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="225"/>
-      <c r="C37" s="225"/>
-      <c r="D37" s="225"/>
-      <c r="E37" s="226"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="229"/>
       <c r="G37" s="29"/>
       <c r="H37" s="141"/>
       <c r="I37" s="182"/>
@@ -20627,7 +20627,7 @@
       <c r="B39" s="211"/>
       <c r="C39" s="197"/>
       <c r="D39" s="203"/>
-      <c r="E39" s="234">
+      <c r="E39" s="238">
         <f>SUM(D39:D62)</f>
         <v>0</v>
       </c>
@@ -20643,7 +20643,7 @@
       <c r="B40" s="211"/>
       <c r="C40" s="198"/>
       <c r="D40" s="204"/>
-      <c r="E40" s="248"/>
+      <c r="E40" s="239"/>
       <c r="G40" s="29"/>
       <c r="H40" s="141"/>
       <c r="I40" s="183"/>
@@ -20656,7 +20656,7 @@
       <c r="B41" s="211"/>
       <c r="C41" s="197"/>
       <c r="D41" s="205"/>
-      <c r="E41" s="248"/>
+      <c r="E41" s="239"/>
       <c r="G41" s="29"/>
       <c r="H41" s="141"/>
       <c r="I41" s="182"/>
@@ -20669,7 +20669,7 @@
       <c r="B42" s="211"/>
       <c r="C42" s="198"/>
       <c r="D42" s="204"/>
-      <c r="E42" s="248"/>
+      <c r="E42" s="239"/>
       <c r="G42" s="29"/>
       <c r="H42" s="141"/>
       <c r="I42" s="183"/>
@@ -20682,7 +20682,7 @@
       <c r="B43" s="211"/>
       <c r="C43" s="197"/>
       <c r="D43" s="205"/>
-      <c r="E43" s="248"/>
+      <c r="E43" s="239"/>
       <c r="G43" s="29"/>
       <c r="H43" s="141"/>
       <c r="I43" s="182"/>
@@ -20695,7 +20695,7 @@
       <c r="B44" s="211"/>
       <c r="C44" s="198"/>
       <c r="D44" s="204"/>
-      <c r="E44" s="248"/>
+      <c r="E44" s="239"/>
       <c r="G44" s="29"/>
       <c r="H44" s="141"/>
       <c r="I44" s="183"/>
@@ -20708,7 +20708,7 @@
       <c r="B45" s="211"/>
       <c r="C45" s="197"/>
       <c r="D45" s="205"/>
-      <c r="E45" s="248"/>
+      <c r="E45" s="239"/>
       <c r="G45" s="29"/>
       <c r="H45" s="141"/>
       <c r="I45" s="182"/>
@@ -20721,7 +20721,7 @@
       <c r="B46" s="211"/>
       <c r="C46" s="198"/>
       <c r="D46" s="204"/>
-      <c r="E46" s="248"/>
+      <c r="E46" s="239"/>
       <c r="G46" s="29"/>
       <c r="H46" s="141"/>
       <c r="I46" s="183"/>
@@ -20734,7 +20734,7 @@
       <c r="B47" s="211"/>
       <c r="C47" s="197"/>
       <c r="D47" s="205"/>
-      <c r="E47" s="248"/>
+      <c r="E47" s="239"/>
       <c r="G47" s="29"/>
       <c r="H47" s="141"/>
       <c r="I47" s="182"/>
@@ -20747,7 +20747,7 @@
       <c r="B48" s="211"/>
       <c r="C48" s="199"/>
       <c r="D48" s="206"/>
-      <c r="E48" s="216"/>
+      <c r="E48" s="219"/>
       <c r="G48" s="58"/>
       <c r="H48" s="141"/>
       <c r="I48" s="182"/>
@@ -20760,110 +20760,110 @@
       <c r="B49" s="211"/>
       <c r="C49" s="200"/>
       <c r="D49" s="207"/>
-      <c r="E49" s="216"/>
-      <c r="G49" s="240"/>
-      <c r="H49" s="240"/>
-      <c r="I49" s="240"/>
-      <c r="J49" s="240"/>
-      <c r="K49" s="240"/>
-      <c r="L49" s="240"/>
+      <c r="E49" s="219"/>
+      <c r="G49" s="252"/>
+      <c r="H49" s="252"/>
+      <c r="I49" s="252"/>
+      <c r="J49" s="252"/>
+      <c r="K49" s="252"/>
+      <c r="L49" s="252"/>
     </row>
     <row r="50" spans="1:28" thickTop="1" thickBot="1">
       <c r="A50" s="29"/>
       <c r="B50" s="211"/>
       <c r="C50" s="199"/>
       <c r="D50" s="206"/>
-      <c r="E50" s="216"/>
+      <c r="E50" s="219"/>
     </row>
     <row r="51" spans="1:28" thickTop="1" thickBot="1">
       <c r="A51" s="29"/>
       <c r="B51" s="211"/>
       <c r="C51" s="200"/>
       <c r="D51" s="207"/>
-      <c r="E51" s="216"/>
+      <c r="E51" s="219"/>
     </row>
     <row r="52" spans="1:28" thickTop="1" thickBot="1">
       <c r="A52" s="29"/>
       <c r="B52" s="211"/>
       <c r="C52" s="199"/>
       <c r="D52" s="206"/>
-      <c r="E52" s="216"/>
+      <c r="E52" s="219"/>
     </row>
     <row r="53" spans="1:28" thickTop="1" thickBot="1">
       <c r="A53" s="29"/>
       <c r="B53" s="211"/>
       <c r="C53" s="200"/>
       <c r="D53" s="207"/>
-      <c r="E53" s="216"/>
+      <c r="E53" s="219"/>
     </row>
     <row r="54" spans="1:28" thickTop="1" thickBot="1">
       <c r="A54" s="29"/>
       <c r="B54" s="211"/>
       <c r="C54" s="199"/>
       <c r="D54" s="206"/>
-      <c r="E54" s="216"/>
+      <c r="E54" s="219"/>
     </row>
     <row r="55" spans="1:28" thickTop="1" thickBot="1">
       <c r="A55" s="29"/>
       <c r="B55" s="211"/>
       <c r="C55" s="200"/>
       <c r="D55" s="207"/>
-      <c r="E55" s="216"/>
+      <c r="E55" s="219"/>
     </row>
     <row r="56" spans="1:28" thickTop="1" thickBot="1">
       <c r="A56" s="29"/>
       <c r="B56" s="211"/>
       <c r="C56" s="199"/>
       <c r="D56" s="206"/>
-      <c r="E56" s="216"/>
+      <c r="E56" s="219"/>
     </row>
     <row r="57" spans="1:28" thickTop="1" thickBot="1">
       <c r="A57" s="29"/>
       <c r="B57" s="211"/>
       <c r="C57" s="200"/>
       <c r="D57" s="207"/>
-      <c r="E57" s="216"/>
+      <c r="E57" s="219"/>
     </row>
     <row r="58" spans="1:28" thickTop="1" thickBot="1">
       <c r="A58" s="29"/>
       <c r="B58" s="211"/>
       <c r="C58" s="199"/>
       <c r="D58" s="206"/>
-      <c r="E58" s="216"/>
+      <c r="E58" s="219"/>
     </row>
     <row r="59" spans="1:28" thickTop="1" thickBot="1">
       <c r="A59" s="29"/>
       <c r="B59" s="211"/>
       <c r="C59" s="201"/>
       <c r="D59" s="202"/>
-      <c r="E59" s="216"/>
+      <c r="E59" s="219"/>
     </row>
     <row r="60" spans="1:28" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A60" s="29"/>
       <c r="B60" s="30"/>
       <c r="C60" s="84"/>
       <c r="D60" s="49"/>
-      <c r="E60" s="216"/>
-      <c r="G60" s="228" t="s">
+      <c r="E60" s="219"/>
+      <c r="G60" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="219"/>
-      <c r="I60" s="219"/>
-      <c r="J60" s="219"/>
-      <c r="K60" s="219"/>
-      <c r="L60" s="220"/>
+      <c r="H60" s="222"/>
+      <c r="I60" s="222"/>
+      <c r="J60" s="222"/>
+      <c r="K60" s="222"/>
+      <c r="L60" s="223"/>
     </row>
     <row r="61" spans="1:28" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A61" s="167"/>
       <c r="B61" s="89"/>
       <c r="C61" s="168"/>
       <c r="D61" s="169"/>
-      <c r="E61" s="216"/>
-      <c r="G61" s="237" t="s">
+      <c r="E61" s="219"/>
+      <c r="G61" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="219"/>
-      <c r="I61" s="230"/>
+      <c r="H61" s="222"/>
+      <c r="I61" s="250"/>
       <c r="J61" s="61"/>
       <c r="K61" s="62" t="s">
         <v>27</v>
@@ -20877,7 +20877,7 @@
       <c r="B62" s="59"/>
       <c r="C62" s="85"/>
       <c r="D62" s="60"/>
-      <c r="E62" s="217"/>
+      <c r="E62" s="220"/>
       <c r="G62" s="196" t="s">
         <v>30</v>
       </c>
@@ -20892,13 +20892,13 @@
       <c r="L62" s="67"/>
     </row>
     <row r="63" spans="1:28" ht="16" thickTop="1" thickBot="1">
-      <c r="A63" s="236" t="s">
+      <c r="A63" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="219"/>
-      <c r="C63" s="219"/>
-      <c r="D63" s="219"/>
-      <c r="E63" s="220"/>
+      <c r="B63" s="222"/>
+      <c r="C63" s="222"/>
+      <c r="D63" s="222"/>
+      <c r="E63" s="223"/>
       <c r="G63" s="78"/>
       <c r="H63" s="48"/>
       <c r="I63" s="180"/>
@@ -20919,11 +20919,11 @@
       <c r="AB63" s="86"/>
     </row>
     <row r="64" spans="1:28" ht="16" thickTop="1" thickBot="1">
-      <c r="A64" s="244"/>
-      <c r="B64" s="219"/>
-      <c r="C64" s="219"/>
-      <c r="D64" s="219"/>
-      <c r="E64" s="220"/>
+      <c r="A64" s="234"/>
+      <c r="B64" s="222"/>
+      <c r="C64" s="222"/>
+      <c r="D64" s="222"/>
+      <c r="E64" s="223"/>
       <c r="G64" s="78"/>
       <c r="H64" s="48"/>
       <c r="I64" s="181"/>
@@ -20944,11 +20944,11 @@
       <c r="AB64" s="86"/>
     </row>
     <row r="65" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A65" s="245"/>
-      <c r="B65" s="219"/>
-      <c r="C65" s="219"/>
-      <c r="D65" s="219"/>
-      <c r="E65" s="220"/>
+      <c r="A65" s="235"/>
+      <c r="B65" s="222"/>
+      <c r="C65" s="222"/>
+      <c r="D65" s="222"/>
+      <c r="E65" s="223"/>
       <c r="G65" s="78"/>
       <c r="H65" s="48"/>
       <c r="I65" s="180"/>
@@ -20973,7 +20973,7 @@
       <c r="B66" s="211"/>
       <c r="C66" s="210"/>
       <c r="D66" s="80"/>
-      <c r="E66" s="234">
+      <c r="E66" s="238">
         <f>SUM(D66:D80)</f>
         <v>0</v>
       </c>
@@ -20989,7 +20989,7 @@
       <c r="B67" s="211"/>
       <c r="C67" s="57"/>
       <c r="D67" s="49"/>
-      <c r="E67" s="216"/>
+      <c r="E67" s="219"/>
       <c r="G67" s="191"/>
       <c r="H67" s="48"/>
       <c r="I67" s="180"/>
@@ -21002,7 +21002,7 @@
       <c r="B68" s="211"/>
       <c r="C68" s="57"/>
       <c r="D68" s="49"/>
-      <c r="E68" s="216"/>
+      <c r="E68" s="219"/>
       <c r="G68" s="191"/>
       <c r="H68" s="48"/>
       <c r="I68" s="181"/>
@@ -21015,7 +21015,7 @@
       <c r="B69" s="211"/>
       <c r="C69" s="57"/>
       <c r="D69" s="49"/>
-      <c r="E69" s="216"/>
+      <c r="E69" s="219"/>
       <c r="G69" s="191"/>
       <c r="H69" s="48"/>
       <c r="I69" s="180"/>
@@ -21028,7 +21028,7 @@
       <c r="B70" s="211"/>
       <c r="C70" s="57"/>
       <c r="D70" s="49"/>
-      <c r="E70" s="216"/>
+      <c r="E70" s="219"/>
       <c r="G70" s="191"/>
       <c r="H70" s="48"/>
       <c r="I70" s="181"/>
@@ -21041,7 +21041,7 @@
       <c r="B71" s="211"/>
       <c r="C71" s="57"/>
       <c r="D71" s="49"/>
-      <c r="E71" s="216"/>
+      <c r="E71" s="219"/>
       <c r="G71" s="191"/>
       <c r="H71" s="48"/>
       <c r="I71" s="183"/>
@@ -21054,7 +21054,7 @@
       <c r="B72" s="211"/>
       <c r="C72" s="57"/>
       <c r="D72" s="49"/>
-      <c r="E72" s="216"/>
+      <c r="E72" s="219"/>
       <c r="G72" s="29"/>
       <c r="H72" s="48"/>
       <c r="I72" s="182"/>
@@ -21067,7 +21067,7 @@
       <c r="B73" s="211"/>
       <c r="C73" s="57"/>
       <c r="D73" s="49"/>
-      <c r="E73" s="216"/>
+      <c r="E73" s="219"/>
       <c r="G73" s="29"/>
       <c r="H73" s="48"/>
       <c r="I73" s="183"/>
@@ -21080,7 +21080,7 @@
       <c r="B74" s="211"/>
       <c r="C74" s="57"/>
       <c r="D74" s="49"/>
-      <c r="E74" s="216"/>
+      <c r="E74" s="219"/>
       <c r="G74" s="29"/>
       <c r="H74" s="48"/>
       <c r="I74" s="182"/>
@@ -21093,7 +21093,7 @@
       <c r="B75" s="211"/>
       <c r="C75" s="57"/>
       <c r="D75" s="49"/>
-      <c r="E75" s="216"/>
+      <c r="E75" s="219"/>
       <c r="G75" s="29"/>
       <c r="H75" s="48"/>
       <c r="I75" s="183"/>
@@ -21106,7 +21106,7 @@
       <c r="B76" s="211"/>
       <c r="C76" s="57"/>
       <c r="D76" s="49"/>
-      <c r="E76" s="216"/>
+      <c r="E76" s="219"/>
       <c r="G76" s="29"/>
       <c r="H76" s="48"/>
       <c r="I76" s="182"/>
@@ -21119,7 +21119,7 @@
       <c r="B77" s="109"/>
       <c r="C77" s="83"/>
       <c r="D77" s="49"/>
-      <c r="E77" s="216"/>
+      <c r="E77" s="219"/>
       <c r="G77" s="29"/>
       <c r="H77" s="48"/>
       <c r="I77" s="183"/>
@@ -21132,7 +21132,7 @@
       <c r="B78" s="109"/>
       <c r="C78" s="83"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="216"/>
+      <c r="E78" s="219"/>
       <c r="G78" s="29"/>
       <c r="H78" s="48"/>
       <c r="I78" s="182"/>
@@ -21145,7 +21145,7 @@
       <c r="B79" s="109"/>
       <c r="C79" s="83"/>
       <c r="D79" s="49"/>
-      <c r="E79" s="216"/>
+      <c r="E79" s="219"/>
       <c r="G79" s="29"/>
       <c r="H79" s="48"/>
       <c r="I79" s="183"/>
@@ -21158,7 +21158,7 @@
       <c r="B80" s="109"/>
       <c r="C80" s="83"/>
       <c r="D80" s="49"/>
-      <c r="E80" s="216"/>
+      <c r="E80" s="219"/>
       <c r="G80" s="29"/>
       <c r="H80" s="48"/>
       <c r="I80" s="182"/>
@@ -21171,7 +21171,7 @@
       <c r="B81" s="30"/>
       <c r="C81" s="83"/>
       <c r="D81" s="49"/>
-      <c r="E81" s="216"/>
+      <c r="E81" s="219"/>
       <c r="G81" s="29"/>
       <c r="H81" s="48"/>
       <c r="I81" s="183"/>
@@ -21184,7 +21184,7 @@
       <c r="B82" s="30"/>
       <c r="C82" s="35"/>
       <c r="D82" s="49"/>
-      <c r="E82" s="216"/>
+      <c r="E82" s="219"/>
       <c r="G82" s="29"/>
       <c r="H82" s="48"/>
       <c r="I82" s="182"/>
@@ -21201,7 +21201,7 @@
       <c r="B83" s="30"/>
       <c r="C83" s="83"/>
       <c r="D83" s="49"/>
-      <c r="E83" s="216"/>
+      <c r="E83" s="219"/>
       <c r="G83" s="29"/>
       <c r="H83" s="48"/>
       <c r="I83" s="183"/>
@@ -21218,7 +21218,7 @@
       <c r="B84" s="89"/>
       <c r="C84" s="192"/>
       <c r="D84" s="169"/>
-      <c r="E84" s="216"/>
+      <c r="E84" s="219"/>
       <c r="G84" s="194"/>
       <c r="H84" s="89"/>
       <c r="I84" s="89"/>
@@ -21235,7 +21235,7 @@
       <c r="B85" s="59"/>
       <c r="C85" s="99"/>
       <c r="D85" s="60"/>
-      <c r="E85" s="217"/>
+      <c r="E85" s="220"/>
       <c r="G85" s="93"/>
       <c r="H85" s="59"/>
       <c r="I85" s="59"/>
@@ -21248,28 +21248,28 @@
       <c r="T85" s="86"/>
     </row>
     <row r="86" spans="1:22" thickTop="1" thickBot="1">
-      <c r="A86" s="236" t="s">
+      <c r="A86" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="219"/>
-      <c r="C86" s="219"/>
-      <c r="D86" s="219"/>
-      <c r="E86" s="220"/>
+      <c r="B86" s="222"/>
+      <c r="C86" s="222"/>
+      <c r="D86" s="222"/>
+      <c r="E86" s="223"/>
     </row>
     <row r="87" spans="1:22" ht="28" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A87" s="235"/>
-      <c r="B87" s="219"/>
-      <c r="C87" s="219"/>
-      <c r="D87" s="219"/>
-      <c r="E87" s="220"/>
-      <c r="G87" s="228" t="s">
+      <c r="A87" s="256"/>
+      <c r="B87" s="222"/>
+      <c r="C87" s="222"/>
+      <c r="D87" s="222"/>
+      <c r="E87" s="223"/>
+      <c r="G87" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="H87" s="219"/>
-      <c r="I87" s="219"/>
-      <c r="J87" s="219"/>
-      <c r="K87" s="219"/>
-      <c r="L87" s="220"/>
+      <c r="H87" s="222"/>
+      <c r="I87" s="222"/>
+      <c r="J87" s="222"/>
+      <c r="K87" s="222"/>
+      <c r="L87" s="223"/>
     </row>
     <row r="88" spans="1:22" ht="16" thickTop="1" thickBot="1">
       <c r="A88" s="69"/>
@@ -21277,11 +21277,11 @@
       <c r="C88" s="70"/>
       <c r="D88" s="70"/>
       <c r="E88" s="72"/>
-      <c r="G88" s="229" t="s">
+      <c r="G88" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="H88" s="219"/>
-      <c r="I88" s="230"/>
+      <c r="H88" s="222"/>
+      <c r="I88" s="250"/>
       <c r="J88" s="61"/>
       <c r="K88" s="62" t="s">
         <v>27</v>
@@ -21291,16 +21291,16 @@
       </c>
     </row>
     <row r="89" spans="1:22" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A89" s="232" t="s">
+      <c r="A89" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="225"/>
-      <c r="C89" s="233"/>
-      <c r="D89" s="231">
+      <c r="B89" s="228"/>
+      <c r="C89" s="255"/>
+      <c r="D89" s="253">
         <f>SUM(D3:D87)</f>
         <v>131</v>
       </c>
-      <c r="E89" s="220"/>
+      <c r="E89" s="223"/>
       <c r="G89" s="65" t="s">
         <v>30</v>
       </c>
@@ -23564,6 +23564,20 @@
     <row r="1058" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="E66:E85"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G49:L49"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="A65:E65"/>
@@ -23576,20 +23590,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G49:L49"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="E66:E85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A86:E86"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -23604,8 +23604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE00D50-E8AF-0448-96F8-1CCF3A0DD32E}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -23630,29 +23630,29 @@
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
-      <c r="D1" s="254" t="s">
+      <c r="D1" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
     </row>
     <row r="2" spans="1:29" ht="24" thickBot="1">
       <c r="A2" s="153" t="s">
@@ -23747,7 +23747,9 @@
       <c r="C3" s="163">
         <v>10</v>
       </c>
-      <c r="D3" s="174"/>
+      <c r="D3" s="174">
+        <v>3</v>
+      </c>
       <c r="E3" s="152"/>
       <c r="F3" s="150"/>
       <c r="G3" s="150"/>
@@ -23783,7 +23785,9 @@
       <c r="C4" s="164">
         <v>5</v>
       </c>
-      <c r="D4" s="174"/>
+      <c r="D4" s="174">
+        <v>1</v>
+      </c>
       <c r="E4" s="152"/>
       <c r="F4" s="150"/>
       <c r="G4" s="150"/>
@@ -23882,7 +23886,7 @@
       <c r="AC6" s="190"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="215" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="180" t="s">
@@ -23918,7 +23922,7 @@
       <c r="AC7" s="190"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="267" t="s">
+      <c r="A8" s="215" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="181" t="s">
@@ -23927,7 +23931,9 @@
       <c r="C8" s="161">
         <v>10</v>
       </c>
-      <c r="D8" s="174"/>
+      <c r="D8" s="174">
+        <v>2</v>
+      </c>
       <c r="E8" s="152"/>
       <c r="F8" s="150"/>
       <c r="G8" s="150"/>
@@ -23954,7 +23960,7 @@
       <c r="AC8" s="190"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="269" t="s">
+      <c r="A9" s="217" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="180" t="s">
@@ -23990,7 +23996,7 @@
       <c r="AC9" s="190"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="268" t="s">
+      <c r="A10" s="216" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="180" t="s">
@@ -24035,7 +24041,9 @@
       <c r="C11" s="161">
         <v>10</v>
       </c>
-      <c r="D11" s="174"/>
+      <c r="D11" s="174">
+        <v>2</v>
+      </c>
       <c r="E11" s="174"/>
       <c r="F11" s="174"/>
       <c r="G11" s="174"/>
@@ -24071,7 +24079,9 @@
       <c r="C12" s="161">
         <v>3</v>
       </c>
-      <c r="D12" s="174"/>
+      <c r="D12" s="174">
+        <v>2</v>
+      </c>
       <c r="E12" s="174"/>
       <c r="F12" s="174"/>
       <c r="G12" s="174"/>
@@ -24245,7 +24255,7 @@
       <c r="Y17" s="177"/>
       <c r="Z17" s="177"/>
       <c r="AA17" s="177"/>
-      <c r="AC17" s="255"/>
+      <c r="AC17" s="258"/>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="166"/>
@@ -24275,7 +24285,7 @@
       <c r="Y18" s="177"/>
       <c r="Z18" s="177"/>
       <c r="AA18" s="177"/>
-      <c r="AC18" s="255"/>
+      <c r="AC18" s="258"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="166"/>
@@ -24864,107 +24874,107 @@
       <c r="A36" s="148"/>
       <c r="B36" s="148"/>
       <c r="C36" s="148"/>
-      <c r="D36" s="256" t="s">
+      <c r="D36" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="257"/>
-      <c r="F36" s="257"/>
-      <c r="G36" s="257"/>
-      <c r="H36" s="257"/>
-      <c r="I36" s="257"/>
-      <c r="J36" s="257"/>
-      <c r="K36" s="257"/>
-      <c r="L36" s="257"/>
-      <c r="M36" s="257"/>
-      <c r="N36" s="257"/>
-      <c r="O36" s="257"/>
-      <c r="P36" s="257"/>
-      <c r="Q36" s="257"/>
-      <c r="R36" s="257"/>
-      <c r="S36" s="257"/>
-      <c r="T36" s="257"/>
-      <c r="U36" s="257"/>
-      <c r="V36" s="257"/>
-      <c r="W36" s="257"/>
-      <c r="X36" s="258"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
+      <c r="H36" s="260"/>
+      <c r="I36" s="260"/>
+      <c r="J36" s="260"/>
+      <c r="K36" s="260"/>
+      <c r="L36" s="260"/>
+      <c r="M36" s="260"/>
+      <c r="N36" s="260"/>
+      <c r="O36" s="260"/>
+      <c r="P36" s="260"/>
+      <c r="Q36" s="260"/>
+      <c r="R36" s="260"/>
+      <c r="S36" s="260"/>
+      <c r="T36" s="260"/>
+      <c r="U36" s="260"/>
+      <c r="V36" s="260"/>
+      <c r="W36" s="260"/>
+      <c r="X36" s="261"/>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="148"/>
       <c r="B37" s="148"/>
       <c r="C37" s="148"/>
-      <c r="D37" s="259"/>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="260"/>
-      <c r="H37" s="260"/>
-      <c r="I37" s="260"/>
-      <c r="J37" s="260"/>
-      <c r="K37" s="260"/>
-      <c r="L37" s="260"/>
-      <c r="M37" s="260"/>
-      <c r="N37" s="260"/>
-      <c r="O37" s="260"/>
-      <c r="P37" s="260"/>
-      <c r="Q37" s="260"/>
-      <c r="R37" s="260"/>
-      <c r="S37" s="260"/>
-      <c r="T37" s="260"/>
-      <c r="U37" s="260"/>
-      <c r="V37" s="260"/>
-      <c r="W37" s="260"/>
-      <c r="X37" s="261"/>
+      <c r="D37" s="262"/>
+      <c r="E37" s="263"/>
+      <c r="F37" s="263"/>
+      <c r="G37" s="263"/>
+      <c r="H37" s="263"/>
+      <c r="I37" s="263"/>
+      <c r="J37" s="263"/>
+      <c r="K37" s="263"/>
+      <c r="L37" s="263"/>
+      <c r="M37" s="263"/>
+      <c r="N37" s="263"/>
+      <c r="O37" s="263"/>
+      <c r="P37" s="263"/>
+      <c r="Q37" s="263"/>
+      <c r="R37" s="263"/>
+      <c r="S37" s="263"/>
+      <c r="T37" s="263"/>
+      <c r="U37" s="263"/>
+      <c r="V37" s="263"/>
+      <c r="W37" s="263"/>
+      <c r="X37" s="264"/>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="148"/>
       <c r="B38" s="148"/>
       <c r="C38" s="148"/>
-      <c r="D38" s="259"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="260"/>
-      <c r="H38" s="260"/>
-      <c r="I38" s="260"/>
-      <c r="J38" s="260"/>
-      <c r="K38" s="260"/>
-      <c r="L38" s="260"/>
-      <c r="M38" s="260"/>
-      <c r="N38" s="260"/>
-      <c r="O38" s="260"/>
-      <c r="P38" s="260"/>
-      <c r="Q38" s="260"/>
-      <c r="R38" s="260"/>
-      <c r="S38" s="260"/>
-      <c r="T38" s="260"/>
-      <c r="U38" s="260"/>
-      <c r="V38" s="260"/>
-      <c r="W38" s="260"/>
-      <c r="X38" s="261"/>
+      <c r="D38" s="262"/>
+      <c r="E38" s="263"/>
+      <c r="F38" s="263"/>
+      <c r="G38" s="263"/>
+      <c r="H38" s="263"/>
+      <c r="I38" s="263"/>
+      <c r="J38" s="263"/>
+      <c r="K38" s="263"/>
+      <c r="L38" s="263"/>
+      <c r="M38" s="263"/>
+      <c r="N38" s="263"/>
+      <c r="O38" s="263"/>
+      <c r="P38" s="263"/>
+      <c r="Q38" s="263"/>
+      <c r="R38" s="263"/>
+      <c r="S38" s="263"/>
+      <c r="T38" s="263"/>
+      <c r="U38" s="263"/>
+      <c r="V38" s="263"/>
+      <c r="W38" s="263"/>
+      <c r="X38" s="264"/>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="148"/>
       <c r="B39" s="148"/>
       <c r="C39" s="148"/>
-      <c r="D39" s="262"/>
-      <c r="E39" s="263"/>
-      <c r="F39" s="263"/>
-      <c r="G39" s="263"/>
-      <c r="H39" s="263"/>
-      <c r="I39" s="263"/>
-      <c r="J39" s="263"/>
-      <c r="K39" s="263"/>
-      <c r="L39" s="263"/>
-      <c r="M39" s="263"/>
-      <c r="N39" s="263"/>
-      <c r="O39" s="263"/>
-      <c r="P39" s="263"/>
-      <c r="Q39" s="263"/>
-      <c r="R39" s="263"/>
-      <c r="S39" s="263"/>
-      <c r="T39" s="263"/>
-      <c r="U39" s="263"/>
-      <c r="V39" s="263"/>
-      <c r="W39" s="263"/>
-      <c r="X39" s="264"/>
+      <c r="D39" s="265"/>
+      <c r="E39" s="266"/>
+      <c r="F39" s="266"/>
+      <c r="G39" s="266"/>
+      <c r="H39" s="266"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="266"/>
+      <c r="K39" s="266"/>
+      <c r="L39" s="266"/>
+      <c r="M39" s="266"/>
+      <c r="N39" s="266"/>
+      <c r="O39" s="266"/>
+      <c r="P39" s="266"/>
+      <c r="Q39" s="266"/>
+      <c r="R39" s="266"/>
+      <c r="S39" s="266"/>
+      <c r="T39" s="266"/>
+      <c r="U39" s="266"/>
+      <c r="V39" s="266"/>
+      <c r="W39" s="266"/>
+      <c r="X39" s="267"/>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="148"/>
@@ -25464,256 +25474,256 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="265"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="258"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="261"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="259"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="261"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="264"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="264"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="259"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="264"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="261"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="264"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="261"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="264"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="261"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="264"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="261"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="264"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="261"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="264"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="261"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="263"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="264"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="260"/>
-      <c r="H16" s="261"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="263"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="264"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="261"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="264"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="261"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="264"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="261"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="263"/>
+      <c r="G19" s="263"/>
+      <c r="H19" s="264"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="261"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="264"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="261"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="263"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="264"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="261"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="264"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="259"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="260"/>
-      <c r="H23" s="261"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="264"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="261"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="264"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="259"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="260"/>
-      <c r="H25" s="261"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="263"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="264"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="259"/>
-      <c r="C26" s="260"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="261"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="264"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="264"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="259"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="260"/>
-      <c r="H28" s="261"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="263"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="263"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="264"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="259"/>
-      <c r="C29" s="260"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="260"/>
-      <c r="H29" s="261"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="263"/>
+      <c r="E29" s="263"/>
+      <c r="F29" s="263"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="264"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="259"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="260"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="261"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="264"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="259"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="261"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="263"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="263"/>
+      <c r="G31" s="263"/>
+      <c r="H31" s="264"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="262"/>
-      <c r="C32" s="263"/>
-      <c r="D32" s="263"/>
-      <c r="E32" s="263"/>
-      <c r="F32" s="263"/>
-      <c r="G32" s="263"/>
-      <c r="H32" s="264"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="266"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="266"/>
+      <c r="H32" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25739,256 +25749,256 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="265"/>
-      <c r="C6" s="257"/>
-      <c r="D6" s="257"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="258"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="264"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="259"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="264"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="261"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="264"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="261"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="264"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="261"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="264"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="261"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="264"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="261"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="264"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="261"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="263"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="264"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="260"/>
-      <c r="H16" s="261"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="263"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="264"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="261"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="264"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="261"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="264"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="261"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="263"/>
+      <c r="G19" s="263"/>
+      <c r="H19" s="264"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="261"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="264"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="261"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="263"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="264"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="261"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="264"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="259"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="260"/>
-      <c r="H23" s="261"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="264"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="261"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="264"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="259"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="260"/>
-      <c r="H25" s="261"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="263"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="264"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="259"/>
-      <c r="C26" s="260"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="261"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="264"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="264"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="259"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="260"/>
-      <c r="H28" s="261"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="263"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="263"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="264"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="259"/>
-      <c r="C29" s="260"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="260"/>
-      <c r="H29" s="261"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="263"/>
+      <c r="E29" s="263"/>
+      <c r="F29" s="263"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="264"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="259"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="260"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="261"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="264"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="259"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="261"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="263"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="263"/>
+      <c r="G31" s="263"/>
+      <c r="H31" s="264"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="259"/>
-      <c r="C32" s="260"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="260"/>
-      <c r="F32" s="260"/>
-      <c r="G32" s="260"/>
-      <c r="H32" s="261"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="263"/>
+      <c r="E32" s="263"/>
+      <c r="F32" s="263"/>
+      <c r="G32" s="263"/>
+      <c r="H32" s="264"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="262"/>
-      <c r="C33" s="263"/>
-      <c r="D33" s="263"/>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="263"/>
-      <c r="H33" s="264"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="266"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="266"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="266"/>
+      <c r="H33" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26027,29 +26037,29 @@
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
-      <c r="D1" s="254" t="s">
+      <c r="D1" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
     </row>
     <row r="2" spans="1:28" ht="24" thickBot="1">
       <c r="A2" s="153" t="s">
@@ -26564,7 +26574,7 @@
       <c r="X17" s="171"/>
       <c r="Y17" s="177"/>
       <c r="Z17" s="177"/>
-      <c r="AB17" s="255"/>
+      <c r="AB17" s="258"/>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="83"/>
@@ -26593,7 +26603,7 @@
       <c r="X18" s="171"/>
       <c r="Y18" s="177"/>
       <c r="Z18" s="177"/>
-      <c r="AB18" s="255"/>
+      <c r="AB18" s="258"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="83"/>
@@ -27163,107 +27173,107 @@
       <c r="A36" s="148"/>
       <c r="B36" s="148"/>
       <c r="C36" s="148"/>
-      <c r="D36" s="256" t="s">
+      <c r="D36" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="257"/>
-      <c r="F36" s="257"/>
-      <c r="G36" s="257"/>
-      <c r="H36" s="257"/>
-      <c r="I36" s="257"/>
-      <c r="J36" s="257"/>
-      <c r="K36" s="257"/>
-      <c r="L36" s="257"/>
-      <c r="M36" s="257"/>
-      <c r="N36" s="257"/>
-      <c r="O36" s="257"/>
-      <c r="P36" s="257"/>
-      <c r="Q36" s="257"/>
-      <c r="R36" s="257"/>
-      <c r="S36" s="257"/>
-      <c r="T36" s="257"/>
-      <c r="U36" s="257"/>
-      <c r="V36" s="257"/>
-      <c r="W36" s="257"/>
-      <c r="X36" s="258"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
+      <c r="H36" s="260"/>
+      <c r="I36" s="260"/>
+      <c r="J36" s="260"/>
+      <c r="K36" s="260"/>
+      <c r="L36" s="260"/>
+      <c r="M36" s="260"/>
+      <c r="N36" s="260"/>
+      <c r="O36" s="260"/>
+      <c r="P36" s="260"/>
+      <c r="Q36" s="260"/>
+      <c r="R36" s="260"/>
+      <c r="S36" s="260"/>
+      <c r="T36" s="260"/>
+      <c r="U36" s="260"/>
+      <c r="V36" s="260"/>
+      <c r="W36" s="260"/>
+      <c r="X36" s="261"/>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="148"/>
       <c r="B37" s="148"/>
       <c r="C37" s="148"/>
-      <c r="D37" s="259"/>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="260"/>
-      <c r="H37" s="260"/>
-      <c r="I37" s="260"/>
-      <c r="J37" s="260"/>
-      <c r="K37" s="260"/>
-      <c r="L37" s="260"/>
-      <c r="M37" s="260"/>
-      <c r="N37" s="260"/>
-      <c r="O37" s="260"/>
-      <c r="P37" s="260"/>
-      <c r="Q37" s="260"/>
-      <c r="R37" s="260"/>
-      <c r="S37" s="260"/>
-      <c r="T37" s="260"/>
-      <c r="U37" s="260"/>
-      <c r="V37" s="260"/>
-      <c r="W37" s="260"/>
-      <c r="X37" s="261"/>
+      <c r="D37" s="262"/>
+      <c r="E37" s="263"/>
+      <c r="F37" s="263"/>
+      <c r="G37" s="263"/>
+      <c r="H37" s="263"/>
+      <c r="I37" s="263"/>
+      <c r="J37" s="263"/>
+      <c r="K37" s="263"/>
+      <c r="L37" s="263"/>
+      <c r="M37" s="263"/>
+      <c r="N37" s="263"/>
+      <c r="O37" s="263"/>
+      <c r="P37" s="263"/>
+      <c r="Q37" s="263"/>
+      <c r="R37" s="263"/>
+      <c r="S37" s="263"/>
+      <c r="T37" s="263"/>
+      <c r="U37" s="263"/>
+      <c r="V37" s="263"/>
+      <c r="W37" s="263"/>
+      <c r="X37" s="264"/>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="148"/>
       <c r="B38" s="148"/>
       <c r="C38" s="148"/>
-      <c r="D38" s="259"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="260"/>
-      <c r="H38" s="260"/>
-      <c r="I38" s="260"/>
-      <c r="J38" s="260"/>
-      <c r="K38" s="260"/>
-      <c r="L38" s="260"/>
-      <c r="M38" s="260"/>
-      <c r="N38" s="260"/>
-      <c r="O38" s="260"/>
-      <c r="P38" s="260"/>
-      <c r="Q38" s="260"/>
-      <c r="R38" s="260"/>
-      <c r="S38" s="260"/>
-      <c r="T38" s="260"/>
-      <c r="U38" s="260"/>
-      <c r="V38" s="260"/>
-      <c r="W38" s="260"/>
-      <c r="X38" s="261"/>
+      <c r="D38" s="262"/>
+      <c r="E38" s="263"/>
+      <c r="F38" s="263"/>
+      <c r="G38" s="263"/>
+      <c r="H38" s="263"/>
+      <c r="I38" s="263"/>
+      <c r="J38" s="263"/>
+      <c r="K38" s="263"/>
+      <c r="L38" s="263"/>
+      <c r="M38" s="263"/>
+      <c r="N38" s="263"/>
+      <c r="O38" s="263"/>
+      <c r="P38" s="263"/>
+      <c r="Q38" s="263"/>
+      <c r="R38" s="263"/>
+      <c r="S38" s="263"/>
+      <c r="T38" s="263"/>
+      <c r="U38" s="263"/>
+      <c r="V38" s="263"/>
+      <c r="W38" s="263"/>
+      <c r="X38" s="264"/>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="148"/>
       <c r="B39" s="148"/>
       <c r="C39" s="148"/>
-      <c r="D39" s="262"/>
-      <c r="E39" s="263"/>
-      <c r="F39" s="263"/>
-      <c r="G39" s="263"/>
-      <c r="H39" s="263"/>
-      <c r="I39" s="263"/>
-      <c r="J39" s="263"/>
-      <c r="K39" s="263"/>
-      <c r="L39" s="263"/>
-      <c r="M39" s="263"/>
-      <c r="N39" s="263"/>
-      <c r="O39" s="263"/>
-      <c r="P39" s="263"/>
-      <c r="Q39" s="263"/>
-      <c r="R39" s="263"/>
-      <c r="S39" s="263"/>
-      <c r="T39" s="263"/>
-      <c r="U39" s="263"/>
-      <c r="V39" s="263"/>
-      <c r="W39" s="263"/>
-      <c r="X39" s="264"/>
+      <c r="D39" s="265"/>
+      <c r="E39" s="266"/>
+      <c r="F39" s="266"/>
+      <c r="G39" s="266"/>
+      <c r="H39" s="266"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="266"/>
+      <c r="K39" s="266"/>
+      <c r="L39" s="266"/>
+      <c r="M39" s="266"/>
+      <c r="N39" s="266"/>
+      <c r="O39" s="266"/>
+      <c r="P39" s="266"/>
+      <c r="Q39" s="266"/>
+      <c r="R39" s="266"/>
+      <c r="S39" s="266"/>
+      <c r="T39" s="266"/>
+      <c r="U39" s="266"/>
+      <c r="V39" s="266"/>
+      <c r="W39" s="266"/>
+      <c r="X39" s="267"/>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="148"/>
@@ -27763,256 +27773,256 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="265"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="258"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="261"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="259"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="261"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="264"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="264"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="259"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="264"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="261"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="264"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="261"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="264"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="261"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="264"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="261"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="264"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="261"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="264"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="261"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="263"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="264"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="260"/>
-      <c r="H16" s="261"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="263"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="264"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="261"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="264"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="261"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="264"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="261"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="263"/>
+      <c r="G19" s="263"/>
+      <c r="H19" s="264"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="261"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="264"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="261"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="263"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="264"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="261"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="264"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="259"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="260"/>
-      <c r="H23" s="261"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="264"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="261"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="264"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="259"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="260"/>
-      <c r="H25" s="261"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="263"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="264"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="259"/>
-      <c r="C26" s="260"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="261"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="264"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="264"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="259"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="260"/>
-      <c r="H28" s="261"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="263"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="263"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="264"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="259"/>
-      <c r="C29" s="260"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="260"/>
-      <c r="H29" s="261"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="263"/>
+      <c r="E29" s="263"/>
+      <c r="F29" s="263"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="264"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="259"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="260"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="261"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="264"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="259"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="261"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="263"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="263"/>
+      <c r="G31" s="263"/>
+      <c r="H31" s="264"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="262"/>
-      <c r="C32" s="263"/>
-      <c r="D32" s="263"/>
-      <c r="E32" s="263"/>
-      <c r="F32" s="263"/>
-      <c r="G32" s="263"/>
-      <c r="H32" s="264"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="266"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="266"/>
+      <c r="H32" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28038,256 +28048,256 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="265"/>
-      <c r="C6" s="257"/>
-      <c r="D6" s="257"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="258"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="264"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="259"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="264"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="261"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="264"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="261"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="264"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="261"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="264"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="261"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="264"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="261"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="264"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="261"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="263"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="264"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="260"/>
-      <c r="H16" s="261"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="263"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="264"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="261"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="264"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="261"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="264"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="261"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="263"/>
+      <c r="G19" s="263"/>
+      <c r="H19" s="264"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="261"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="264"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="261"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="263"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="264"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="261"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="263"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="264"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="259"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="260"/>
-      <c r="H23" s="261"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="264"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="261"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="264"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="259"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="260"/>
-      <c r="H25" s="261"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="263"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="264"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="259"/>
-      <c r="C26" s="260"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="261"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="264"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="264"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="259"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="260"/>
-      <c r="H28" s="261"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="263"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="263"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="264"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="259"/>
-      <c r="C29" s="260"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="260"/>
-      <c r="H29" s="261"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="263"/>
+      <c r="E29" s="263"/>
+      <c r="F29" s="263"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="264"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="259"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="260"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="261"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="264"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="259"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="261"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="263"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="263"/>
+      <c r="G31" s="263"/>
+      <c r="H31" s="264"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="259"/>
-      <c r="C32" s="260"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="260"/>
-      <c r="F32" s="260"/>
-      <c r="G32" s="260"/>
-      <c r="H32" s="261"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="263"/>
+      <c r="E32" s="263"/>
+      <c r="F32" s="263"/>
+      <c r="G32" s="263"/>
+      <c r="H32" s="264"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="262"/>
-      <c r="C33" s="263"/>
-      <c r="D33" s="263"/>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="263"/>
-      <c r="H33" s="264"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="266"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="266"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="266"/>
+      <c r="H33" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/Documentation.xlsx
+++ b/documents/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/CO600 Group Project/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D4212-94D0-CD4D-929A-2A97AF1C27EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91C048-1BE9-3D4E-A7C6-F645BD308938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" state="hidden" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="115">
   <si>
     <t>User Stories</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Waleed/Alex</t>
   </si>
   <si>
-    <t>2 weeks a sprint?</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>Research And Design Lo-Fi Interface</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -2095,6 +2095,41 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2112,13 +2147,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2135,35 +2164,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -17580,7 +17580,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="231" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="223"/>
@@ -19812,7 +19812,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="214" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -19904,9 +19904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1058"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -19926,11 +19926,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="233"/>
+      <c r="A1" s="244"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="246"/>
     </row>
     <row r="2" spans="1:28" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="9" t="s">
@@ -19971,7 +19971,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>102</v>
@@ -19979,7 +19979,7 @@
       <c r="D3" s="163">
         <v>10</v>
       </c>
-      <c r="E3" s="238">
+      <c r="E3" s="237">
         <f>SUM(D3:D35)</f>
         <v>131</v>
       </c>
@@ -19989,7 +19989,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="214" t="s">
         <v>96</v>
@@ -19998,7 +19998,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="219"/>
-      <c r="G4" s="248" t="s">
+      <c r="G4" s="231" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="223"/>
@@ -20012,7 +20012,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="214" t="s">
         <v>99</v>
@@ -20033,7 +20033,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="214" t="s">
         <v>100</v>
@@ -20054,7 +20054,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="215" t="s">
         <v>101</v>
@@ -20075,7 +20075,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="215" t="s">
         <v>107</v>
@@ -20096,7 +20096,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="217" t="s">
         <v>103</v>
@@ -20117,7 +20117,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="216" t="s">
         <v>104</v>
@@ -20134,10 +20134,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="214" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="161">
         <v>10</v>
@@ -20151,7 +20151,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="214" t="s">
         <v>105</v>
@@ -20162,9 +20162,6 @@
       <c r="E12" s="219"/>
       <c r="G12" s="159"/>
       <c r="H12" s="160"/>
-      <c r="I12" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="13" spans="1:28" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="29"/>
@@ -20172,7 +20169,7 @@
       <c r="C13" s="166"/>
       <c r="D13" s="161"/>
       <c r="E13" s="219"/>
-      <c r="G13" s="248" t="s">
+      <c r="G13" s="231" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="222"/>
@@ -20187,11 +20184,11 @@
       <c r="C14" s="166"/>
       <c r="D14" s="161"/>
       <c r="E14" s="219"/>
-      <c r="G14" s="249" t="s">
+      <c r="G14" s="232" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="222"/>
-      <c r="I14" s="250"/>
+      <c r="I14" s="233"/>
       <c r="J14" s="61"/>
       <c r="K14" s="62" t="s">
         <v>27</v>
@@ -20229,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="141" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I16" s="180" t="s">
         <v>97</v>
@@ -20252,7 +20249,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="141" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I17" s="180" t="s">
         <v>46</v>
@@ -20266,10 +20263,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A18" s="246"/>
-      <c r="B18" s="244"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="242"/>
+      <c r="A18" s="241"/>
+      <c r="B18" s="255"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="253"/>
       <c r="E18" s="219"/>
       <c r="G18" s="29">
         <v>3</v>
@@ -20289,10 +20286,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A19" s="247"/>
-      <c r="B19" s="245"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="243"/>
+      <c r="A19" s="242"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="252"/>
+      <c r="D19" s="254"/>
       <c r="E19" s="219"/>
       <c r="G19" s="29">
         <v>4</v>
@@ -20344,7 +20341,7 @@
         <v>6</v>
       </c>
       <c r="H21" s="141" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I21" s="181" t="s">
         <v>78</v>
@@ -20390,7 +20387,7 @@
         <v>8</v>
       </c>
       <c r="H23" s="141" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I23" s="180" t="s">
         <v>97</v>
@@ -20436,7 +20433,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="141" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I25" s="182" t="s">
         <v>110</v>
@@ -20520,7 +20517,7 @@
       <c r="C31" s="166"/>
       <c r="D31" s="161"/>
       <c r="E31" s="219"/>
-      <c r="G31" s="246"/>
+      <c r="G31" s="241"/>
       <c r="H31" s="141"/>
       <c r="I31" s="182"/>
       <c r="J31" s="95"/>
@@ -20533,7 +20530,7 @@
       <c r="C32" s="166"/>
       <c r="D32" s="161"/>
       <c r="E32" s="219"/>
-      <c r="G32" s="247"/>
+      <c r="G32" s="242"/>
       <c r="H32" s="141"/>
       <c r="I32" s="183"/>
       <c r="J32" s="95"/>
@@ -20580,7 +20577,7 @@
       <c r="L35" s="142"/>
     </row>
     <row r="36" spans="1:12" thickTop="1" thickBot="1">
-      <c r="A36" s="236" t="s">
+      <c r="A36" s="249" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="222"/>
@@ -20595,8 +20592,8 @@
       <c r="L36" s="142"/>
     </row>
     <row r="37" spans="1:12" thickTop="1" thickBot="1">
-      <c r="A37" s="237" t="s">
-        <v>113</v>
+      <c r="A37" s="250" t="s">
+        <v>112</v>
       </c>
       <c r="B37" s="228"/>
       <c r="C37" s="228"/>
@@ -20627,7 +20624,7 @@
       <c r="B39" s="211"/>
       <c r="C39" s="197"/>
       <c r="D39" s="203"/>
-      <c r="E39" s="238">
+      <c r="E39" s="237">
         <f>SUM(D39:D62)</f>
         <v>0</v>
       </c>
@@ -20643,7 +20640,7 @@
       <c r="B40" s="211"/>
       <c r="C40" s="198"/>
       <c r="D40" s="204"/>
-      <c r="E40" s="239"/>
+      <c r="E40" s="251"/>
       <c r="G40" s="29"/>
       <c r="H40" s="141"/>
       <c r="I40" s="183"/>
@@ -20656,7 +20653,7 @@
       <c r="B41" s="211"/>
       <c r="C41" s="197"/>
       <c r="D41" s="205"/>
-      <c r="E41" s="239"/>
+      <c r="E41" s="251"/>
       <c r="G41" s="29"/>
       <c r="H41" s="141"/>
       <c r="I41" s="182"/>
@@ -20669,7 +20666,7 @@
       <c r="B42" s="211"/>
       <c r="C42" s="198"/>
       <c r="D42" s="204"/>
-      <c r="E42" s="239"/>
+      <c r="E42" s="251"/>
       <c r="G42" s="29"/>
       <c r="H42" s="141"/>
       <c r="I42" s="183"/>
@@ -20682,7 +20679,7 @@
       <c r="B43" s="211"/>
       <c r="C43" s="197"/>
       <c r="D43" s="205"/>
-      <c r="E43" s="239"/>
+      <c r="E43" s="251"/>
       <c r="G43" s="29"/>
       <c r="H43" s="141"/>
       <c r="I43" s="182"/>
@@ -20695,7 +20692,7 @@
       <c r="B44" s="211"/>
       <c r="C44" s="198"/>
       <c r="D44" s="204"/>
-      <c r="E44" s="239"/>
+      <c r="E44" s="251"/>
       <c r="G44" s="29"/>
       <c r="H44" s="141"/>
       <c r="I44" s="183"/>
@@ -20708,7 +20705,7 @@
       <c r="B45" s="211"/>
       <c r="C45" s="197"/>
       <c r="D45" s="205"/>
-      <c r="E45" s="239"/>
+      <c r="E45" s="251"/>
       <c r="G45" s="29"/>
       <c r="H45" s="141"/>
       <c r="I45" s="182"/>
@@ -20721,7 +20718,7 @@
       <c r="B46" s="211"/>
       <c r="C46" s="198"/>
       <c r="D46" s="204"/>
-      <c r="E46" s="239"/>
+      <c r="E46" s="251"/>
       <c r="G46" s="29"/>
       <c r="H46" s="141"/>
       <c r="I46" s="183"/>
@@ -20734,7 +20731,7 @@
       <c r="B47" s="211"/>
       <c r="C47" s="197"/>
       <c r="D47" s="205"/>
-      <c r="E47" s="239"/>
+      <c r="E47" s="251"/>
       <c r="G47" s="29"/>
       <c r="H47" s="141"/>
       <c r="I47" s="182"/>
@@ -20761,12 +20758,12 @@
       <c r="C49" s="200"/>
       <c r="D49" s="207"/>
       <c r="E49" s="219"/>
-      <c r="G49" s="252"/>
-      <c r="H49" s="252"/>
-      <c r="I49" s="252"/>
-      <c r="J49" s="252"/>
-      <c r="K49" s="252"/>
-      <c r="L49" s="252"/>
+      <c r="G49" s="243"/>
+      <c r="H49" s="243"/>
+      <c r="I49" s="243"/>
+      <c r="J49" s="243"/>
+      <c r="K49" s="243"/>
+      <c r="L49" s="243"/>
     </row>
     <row r="50" spans="1:28" thickTop="1" thickBot="1">
       <c r="A50" s="29"/>
@@ -20844,7 +20841,7 @@
       <c r="C60" s="84"/>
       <c r="D60" s="49"/>
       <c r="E60" s="219"/>
-      <c r="G60" s="248" t="s">
+      <c r="G60" s="231" t="s">
         <v>48</v>
       </c>
       <c r="H60" s="222"/>
@@ -20859,11 +20856,11 @@
       <c r="C61" s="168"/>
       <c r="D61" s="169"/>
       <c r="E61" s="219"/>
-      <c r="G61" s="251" t="s">
+      <c r="G61" s="240" t="s">
         <v>26</v>
       </c>
       <c r="H61" s="222"/>
-      <c r="I61" s="250"/>
+      <c r="I61" s="233"/>
       <c r="J61" s="61"/>
       <c r="K61" s="62" t="s">
         <v>27</v>
@@ -20892,7 +20889,7 @@
       <c r="L62" s="67"/>
     </row>
     <row r="63" spans="1:28" ht="16" thickTop="1" thickBot="1">
-      <c r="A63" s="240" t="s">
+      <c r="A63" s="239" t="s">
         <v>33</v>
       </c>
       <c r="B63" s="222"/>
@@ -20919,7 +20916,7 @@
       <c r="AB63" s="86"/>
     </row>
     <row r="64" spans="1:28" ht="16" thickTop="1" thickBot="1">
-      <c r="A64" s="234"/>
+      <c r="A64" s="247"/>
       <c r="B64" s="222"/>
       <c r="C64" s="222"/>
       <c r="D64" s="222"/>
@@ -20944,7 +20941,7 @@
       <c r="AB64" s="86"/>
     </row>
     <row r="65" spans="1:28" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A65" s="235"/>
+      <c r="A65" s="248"/>
       <c r="B65" s="222"/>
       <c r="C65" s="222"/>
       <c r="D65" s="222"/>
@@ -20973,7 +20970,7 @@
       <c r="B66" s="211"/>
       <c r="C66" s="210"/>
       <c r="D66" s="80"/>
-      <c r="E66" s="238">
+      <c r="E66" s="237">
         <f>SUM(D66:D80)</f>
         <v>0</v>
       </c>
@@ -21248,7 +21245,7 @@
       <c r="T85" s="86"/>
     </row>
     <row r="86" spans="1:22" thickTop="1" thickBot="1">
-      <c r="A86" s="240" t="s">
+      <c r="A86" s="239" t="s">
         <v>35</v>
       </c>
       <c r="B86" s="222"/>
@@ -21257,12 +21254,12 @@
       <c r="E86" s="223"/>
     </row>
     <row r="87" spans="1:22" ht="28" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A87" s="256"/>
+      <c r="A87" s="238"/>
       <c r="B87" s="222"/>
       <c r="C87" s="222"/>
       <c r="D87" s="222"/>
       <c r="E87" s="223"/>
-      <c r="G87" s="248" t="s">
+      <c r="G87" s="231" t="s">
         <v>36</v>
       </c>
       <c r="H87" s="222"/>
@@ -21277,11 +21274,11 @@
       <c r="C88" s="70"/>
       <c r="D88" s="70"/>
       <c r="E88" s="72"/>
-      <c r="G88" s="249" t="s">
+      <c r="G88" s="232" t="s">
         <v>26</v>
       </c>
       <c r="H88" s="222"/>
-      <c r="I88" s="250"/>
+      <c r="I88" s="233"/>
       <c r="J88" s="61"/>
       <c r="K88" s="62" t="s">
         <v>27</v>
@@ -21291,12 +21288,12 @@
       </c>
     </row>
     <row r="89" spans="1:22" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A89" s="254" t="s">
+      <c r="A89" s="235" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="228"/>
-      <c r="C89" s="255"/>
-      <c r="D89" s="253">
+      <c r="C89" s="236"/>
+      <c r="D89" s="234">
         <f>SUM(D3:D87)</f>
         <v>131</v>
       </c>
@@ -23564,20 +23561,6 @@
     <row r="1058" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="E66:E85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G49:L49"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="A65:E65"/>
@@ -23590,6 +23573,20 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="E66:E85"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A86:E86"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -23604,8 +23601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE00D50-E8AF-0448-96F8-1CCF3A0DD32E}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -23750,13 +23747,27 @@
       <c r="D3" s="174">
         <v>3</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
+      <c r="E3" s="152">
+        <v>1</v>
+      </c>
+      <c r="F3" s="150">
+        <v>1</v>
+      </c>
+      <c r="G3" s="150">
+        <v>1</v>
+      </c>
+      <c r="H3" s="150">
+        <v>1</v>
+      </c>
+      <c r="I3" s="150">
+        <v>1</v>
+      </c>
+      <c r="J3" s="150">
+        <v>1</v>
+      </c>
+      <c r="K3" s="150">
+        <v>1</v>
+      </c>
       <c r="L3" s="150"/>
       <c r="M3" s="150"/>
       <c r="N3" s="150"/>
@@ -23788,13 +23799,21 @@
       <c r="D4" s="174">
         <v>1</v>
       </c>
-      <c r="E4" s="152"/>
+      <c r="E4" s="152">
+        <v>1</v>
+      </c>
       <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
+      <c r="G4" s="150">
+        <v>1</v>
+      </c>
       <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
+      <c r="I4" s="150">
+        <v>1</v>
+      </c>
       <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
+      <c r="K4" s="150">
+        <v>1</v>
+      </c>
       <c r="L4" s="150"/>
       <c r="M4" s="150"/>
       <c r="N4" s="150"/>
@@ -23823,13 +23842,21 @@
       <c r="C5" s="161">
         <v>20</v>
       </c>
-      <c r="D5" s="174"/>
+      <c r="D5" s="174">
+        <v>5</v>
+      </c>
       <c r="E5" s="152"/>
-      <c r="F5" s="150"/>
+      <c r="F5" s="150">
+        <v>5</v>
+      </c>
       <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
+      <c r="H5" s="150">
+        <v>5</v>
+      </c>
       <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
+      <c r="J5" s="150">
+        <v>5</v>
+      </c>
       <c r="K5" s="150"/>
       <c r="L5" s="150"/>
       <c r="M5" s="150"/>
@@ -23860,13 +23887,21 @@
         <v>20</v>
       </c>
       <c r="D6" s="174"/>
-      <c r="E6" s="152"/>
+      <c r="E6" s="152">
+        <v>5</v>
+      </c>
       <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
+      <c r="G6" s="150">
+        <v>5</v>
+      </c>
       <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="I6" s="150">
+        <v>5</v>
+      </c>
       <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
+      <c r="K6" s="150">
+        <v>5</v>
+      </c>
       <c r="L6" s="150"/>
       <c r="M6" s="150"/>
       <c r="N6" s="150"/>
@@ -23903,14 +23938,24 @@
       <c r="I7" s="150"/>
       <c r="J7" s="150"/>
       <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
+      <c r="L7" s="150">
+        <v>5</v>
+      </c>
+      <c r="M7" s="150">
+        <v>5</v>
+      </c>
+      <c r="N7" s="150">
+        <v>5</v>
+      </c>
       <c r="O7" s="150"/>
       <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
+      <c r="Q7" s="150">
+        <v>5</v>
+      </c>
       <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
+      <c r="S7" s="150">
+        <v>5</v>
+      </c>
       <c r="T7" s="150"/>
       <c r="U7" s="150"/>
       <c r="V7" s="150"/>
@@ -23970,19 +24015,31 @@
         <v>30</v>
       </c>
       <c r="D9" s="174"/>
-      <c r="E9" s="152"/>
+      <c r="E9" s="152">
+        <v>5</v>
+      </c>
       <c r="F9" s="150"/>
       <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
+      <c r="H9" s="150">
+        <v>5</v>
+      </c>
       <c r="I9" s="150"/>
       <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
+      <c r="K9" s="150">
+        <v>5</v>
+      </c>
       <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
+      <c r="M9" s="150">
+        <v>5</v>
+      </c>
       <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
+      <c r="O9" s="150">
+        <v>5</v>
+      </c>
       <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
+      <c r="Q9" s="150">
+        <v>5</v>
+      </c>
       <c r="R9" s="150"/>
       <c r="S9" s="150"/>
       <c r="T9" s="150"/>
@@ -24007,7 +24064,9 @@
       </c>
       <c r="D10" s="174"/>
       <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
+      <c r="F10" s="174">
+        <v>3</v>
+      </c>
       <c r="G10" s="174"/>
       <c r="H10" s="174"/>
       <c r="I10" s="174"/>
@@ -24033,7 +24092,7 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="214" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="180" t="s">
         <v>78</v>
@@ -24045,13 +24104,21 @@
         <v>2</v>
       </c>
       <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
+      <c r="F11" s="174">
+        <v>2</v>
+      </c>
       <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
+      <c r="H11" s="174">
+        <v>2</v>
+      </c>
       <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
+      <c r="J11" s="174">
+        <v>2</v>
+      </c>
       <c r="K11" s="174"/>
-      <c r="L11" s="174"/>
+      <c r="L11" s="174">
+        <v>2</v>
+      </c>
       <c r="M11" s="174"/>
       <c r="N11" s="174"/>
       <c r="O11" s="174"/>
@@ -24083,7 +24150,9 @@
         <v>2</v>
       </c>
       <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
+      <c r="F12" s="174">
+        <v>1</v>
+      </c>
       <c r="G12" s="174"/>
       <c r="H12" s="174"/>
       <c r="I12" s="174"/>
